--- a/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
+++ b/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
+++ b/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
+++ b/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
+++ b/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
+++ b/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
+++ b/refs/heads/master/StructureDefinition-EvaluacionPertinencia.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
